--- a/Huy/demo_pit_report_1641285136.xlsx
+++ b/Huy/demo_pit_report_1641285136.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="600" windowWidth="27660" windowHeight="13995"/>
+    <workbookView xWindow="630" yWindow="600" windowWidth="27495" windowHeight="13995"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Summary!$A$1:$F$22</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Summary!$A:$E,Summary!$1:$2</definedName>
   </definedNames>
-  <calcPr calcId="144525" forceFullCalc="1"/>
+  <calcPr calcId="145621" forceFullCalc="1"/>
 </workbook>
 </file>
 
@@ -2239,23 +2239,34 @@
     <xf numFmtId="4" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="4" fontId="15" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="165" fontId="15" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="15" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="15" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="23" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2264,23 +2275,8 @@
     <xf numFmtId="4" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="15" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="23" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="15" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2288,67 +2284,23 @@
     <xf numFmtId="4" fontId="15" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="15" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="15" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2364,31 +2316,87 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="41" fontId="10" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2423,36 +2431,28 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2776,112 +2776,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" s="100" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="143" t="s">
+      <c r="B1" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="143" t="s">
+      <c r="C1" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="142" t="s">
+      <c r="D1" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="143" t="s">
+      <c r="E1" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="142" t="s">
+      <c r="F1" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="134" t="s">
+      <c r="G1" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134" t="s">
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="134"/>
-      <c r="M1" s="134"/>
-      <c r="N1" s="134"/>
-      <c r="O1" s="134" t="s">
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="134"/>
-      <c r="Q1" s="134"/>
-      <c r="R1" s="134"/>
-      <c r="S1" s="138" t="s">
+      <c r="P1" s="126"/>
+      <c r="Q1" s="126"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="134" t="s">
+      <c r="T1" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="134"/>
-      <c r="V1" s="134"/>
-      <c r="W1" s="134"/>
-      <c r="X1" s="141" t="s">
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="Y1" s="141"/>
-      <c r="Z1" s="141"/>
-      <c r="AA1" s="141"/>
-      <c r="AB1" s="138" t="s">
+      <c r="Y1" s="137"/>
+      <c r="Z1" s="137"/>
+      <c r="AA1" s="137"/>
+      <c r="AB1" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="AC1" s="138" t="s">
+      <c r="AC1" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="AD1" s="134" t="s">
+      <c r="AD1" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="AE1" s="134"/>
-      <c r="AF1" s="134"/>
-      <c r="AG1" s="134"/>
-      <c r="AH1" s="134" t="s">
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="126"/>
+      <c r="AG1" s="126"/>
+      <c r="AH1" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="AI1" s="134"/>
-      <c r="AJ1" s="134"/>
-      <c r="AK1" s="134"/>
-      <c r="AL1" s="138" t="s">
+      <c r="AI1" s="126"/>
+      <c r="AJ1" s="126"/>
+      <c r="AK1" s="126"/>
+      <c r="AL1" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="AM1" s="134" t="s">
+      <c r="AM1" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="AN1" s="134"/>
-      <c r="AO1" s="134"/>
-      <c r="AP1" s="134"/>
-      <c r="AQ1" s="140" t="s">
+      <c r="AN1" s="126"/>
+      <c r="AO1" s="126"/>
+      <c r="AP1" s="126"/>
+      <c r="AQ1" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="AR1" s="140"/>
-      <c r="AS1" s="140"/>
-      <c r="AT1" s="140"/>
-      <c r="AU1" s="134" t="s">
+      <c r="AR1" s="136"/>
+      <c r="AS1" s="136"/>
+      <c r="AT1" s="136"/>
+      <c r="AU1" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="AV1" s="134"/>
-      <c r="AW1" s="134"/>
-      <c r="AX1" s="134"/>
-      <c r="AY1" s="138" t="s">
+      <c r="AV1" s="126"/>
+      <c r="AW1" s="126"/>
+      <c r="AX1" s="126"/>
+      <c r="AY1" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="AZ1" s="134" t="s">
+      <c r="AZ1" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="BA1" s="134"/>
-      <c r="BB1" s="134"/>
+      <c r="BA1" s="126"/>
+      <c r="BB1" s="126"/>
     </row>
     <row r="2" spans="1:55" s="87" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="144"/>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="142"/>
+      <c r="A2" s="124"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="125"/>
       <c r="G2" s="109" t="s">
         <v>22</v>
       </c>
@@ -2918,7 +2918,7 @@
       <c r="R2" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="S2" s="139"/>
+      <c r="S2" s="128"/>
       <c r="T2" s="109" t="s">
         <v>22</v>
       </c>
@@ -2943,8 +2943,8 @@
       <c r="AA2" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="139"/>
-      <c r="AC2" s="139"/>
+      <c r="AB2" s="128"/>
+      <c r="AC2" s="128"/>
       <c r="AD2" s="109" t="s">
         <v>22</v>
       </c>
@@ -2969,7 +2969,7 @@
       <c r="AK2" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="AL2" s="139"/>
+      <c r="AL2" s="128"/>
       <c r="AM2" s="109" t="s">
         <v>22</v>
       </c>
@@ -3006,7 +3006,7 @@
       <c r="AX2" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="AY2" s="139"/>
+      <c r="AY2" s="128"/>
       <c r="AZ2" s="113" t="s">
         <v>26</v>
       </c>
@@ -3879,14 +3879,14 @@
       <c r="F8" s="90"/>
     </row>
     <row r="9" spans="1:55" s="92" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="135" t="s">
+      <c r="A9" s="129" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="136"/>
-      <c r="C9" s="136"/>
-      <c r="D9" s="136"/>
-      <c r="E9" s="136"/>
-      <c r="F9" s="136"/>
+      <c r="B9" s="130"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="130"/>
       <c r="G9" s="105" t="s">
         <v>39</v>
       </c>
@@ -3904,14 +3904,14 @@
       <c r="S9" s="93"/>
     </row>
     <row r="10" spans="1:55" s="92" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="129" t="s">
+      <c r="A10" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="137"/>
-      <c r="C10" s="137"/>
-      <c r="D10" s="137"/>
-      <c r="E10" s="137"/>
-      <c r="F10" s="137"/>
+      <c r="B10" s="132"/>
+      <c r="C10" s="132"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="132"/>
       <c r="G10" s="106">
         <v>4</v>
       </c>
@@ -3929,14 +3929,14 @@
       <c r="S10" s="93"/>
     </row>
     <row r="11" spans="1:55" s="92" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="132" t="s">
+      <c r="A11" s="133" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="133"/>
-      <c r="C11" s="133"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
+      <c r="B11" s="134"/>
+      <c r="C11" s="134"/>
+      <c r="D11" s="134"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="134"/>
       <c r="G11" s="104">
         <f>COUNT(J3:J6)</f>
         <v>4</v>
@@ -3955,41 +3955,41 @@
       <c r="S11" s="93"/>
     </row>
     <row r="12" spans="1:55" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="129" t="s">
+      <c r="A12" s="131" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="130"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="130"/>
+      <c r="B12" s="135"/>
+      <c r="C12" s="135"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="135"/>
+      <c r="F12" s="135"/>
       <c r="G12" s="104">
         <f>SUM(G13:G14)</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:55" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="131" t="s">
+      <c r="A13" s="138" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="130"/>
-      <c r="C13" s="130"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="130"/>
-      <c r="F13" s="130"/>
+      <c r="B13" s="135"/>
+      <c r="C13" s="135"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="135"/>
       <c r="G13" s="104">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:55" s="92" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="132" t="s">
+      <c r="A14" s="133" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="133"/>
-      <c r="C14" s="133"/>
-      <c r="D14" s="133"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="133"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="134"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="134"/>
       <c r="G14" s="104">
         <v>0</v>
       </c>
@@ -4007,41 +4007,41 @@
       <c r="S14" s="93"/>
     </row>
     <row r="15" spans="1:55" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="129" t="s">
+      <c r="A15" s="131" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="130"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="130"/>
-      <c r="F15" s="130"/>
+      <c r="B15" s="135"/>
+      <c r="C15" s="135"/>
+      <c r="D15" s="135"/>
+      <c r="E15" s="135"/>
+      <c r="F15" s="135"/>
       <c r="G15" s="104">
         <f>SUM(G16:G17)</f>
         <v>9266993</v>
       </c>
     </row>
     <row r="16" spans="1:55" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="131" t="s">
+      <c r="A16" s="138" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="130"/>
-      <c r="C16" s="130"/>
-      <c r="D16" s="130"/>
-      <c r="E16" s="130"/>
-      <c r="F16" s="130"/>
+      <c r="B16" s="135"/>
+      <c r="C16" s="135"/>
+      <c r="D16" s="135"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="135"/>
       <c r="G16" s="104">
         <v>9266993</v>
       </c>
     </row>
     <row r="17" spans="1:19" s="92" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="132" t="s">
+      <c r="A17" s="133" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="133"/>
-      <c r="C17" s="133"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="133"/>
-      <c r="F17" s="133"/>
+      <c r="B17" s="134"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="134"/>
+      <c r="E17" s="134"/>
+      <c r="F17" s="134"/>
       <c r="G17" s="104">
         <f>SUM(R3:R6)</f>
         <v>0</v>
@@ -4060,41 +4060,41 @@
       <c r="S17" s="93"/>
     </row>
     <row r="18" spans="1:19" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="129" t="s">
+      <c r="A18" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="130"/>
-      <c r="C18" s="130"/>
-      <c r="D18" s="130"/>
-      <c r="E18" s="130"/>
-      <c r="F18" s="130"/>
+      <c r="B18" s="135"/>
+      <c r="C18" s="135"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="135"/>
+      <c r="F18" s="135"/>
       <c r="G18" s="104">
         <f>SUM(G19:G20)</f>
         <v>26834476</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="131" t="s">
+      <c r="A19" s="138" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="130"/>
-      <c r="C19" s="130"/>
-      <c r="D19" s="130"/>
-      <c r="E19" s="130"/>
-      <c r="F19" s="130"/>
+      <c r="B19" s="135"/>
+      <c r="C19" s="135"/>
+      <c r="D19" s="135"/>
+      <c r="E19" s="135"/>
+      <c r="F19" s="135"/>
       <c r="G19" s="104">
         <v>26834476</v>
       </c>
     </row>
     <row r="20" spans="1:19" s="92" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="132" t="s">
+      <c r="A20" s="133" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="133"/>
-      <c r="C20" s="133"/>
-      <c r="D20" s="133"/>
-      <c r="E20" s="133"/>
-      <c r="F20" s="133"/>
+      <c r="B20" s="134"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="134"/>
+      <c r="E20" s="134"/>
+      <c r="F20" s="134"/>
       <c r="G20" s="104">
         <v>0</v>
       </c>
@@ -4112,147 +4112,159 @@
       <c r="S20" s="93"/>
     </row>
     <row r="21" spans="1:19" s="94" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="129" t="s">
+      <c r="A21" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="130"/>
-      <c r="C21" s="130"/>
-      <c r="D21" s="130"/>
-      <c r="E21" s="130"/>
-      <c r="F21" s="130"/>
+      <c r="B21" s="135"/>
+      <c r="C21" s="135"/>
+      <c r="D21" s="135"/>
+      <c r="E21" s="135"/>
+      <c r="F21" s="135"/>
       <c r="G21" s="107">
         <f>SUM(G22:G23)</f>
         <v>676699</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="131" t="s">
+      <c r="A22" s="138" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="130"/>
-      <c r="C22" s="130"/>
-      <c r="D22" s="130"/>
-      <c r="E22" s="130"/>
-      <c r="F22" s="130"/>
+      <c r="B22" s="135"/>
+      <c r="C22" s="135"/>
+      <c r="D22" s="135"/>
+      <c r="E22" s="135"/>
+      <c r="F22" s="135"/>
       <c r="G22" s="104">
         <v>676699</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="126" t="s">
+      <c r="A23" s="139" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="127"/>
-      <c r="C23" s="127"/>
-      <c r="D23" s="128"/>
-      <c r="E23" s="128"/>
-      <c r="F23" s="128"/>
+      <c r="B23" s="140"/>
+      <c r="C23" s="140"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="141"/>
+      <c r="F23" s="141"/>
       <c r="G23" s="104">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="123"/>
-      <c r="B24" s="124"/>
-      <c r="C24" s="124"/>
-      <c r="D24" s="125"/>
-      <c r="E24" s="125"/>
-      <c r="F24" s="125"/>
+      <c r="A24" s="142"/>
+      <c r="B24" s="143"/>
+      <c r="C24" s="143"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="144"/>
+      <c r="F24" s="144"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="123"/>
-      <c r="B25" s="124"/>
-      <c r="C25" s="124"/>
-      <c r="D25" s="125"/>
-      <c r="E25" s="125"/>
-      <c r="F25" s="125"/>
+      <c r="A25" s="142"/>
+      <c r="B25" s="143"/>
+      <c r="C25" s="143"/>
+      <c r="D25" s="144"/>
+      <c r="E25" s="144"/>
+      <c r="F25" s="144"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="123"/>
-      <c r="B26" s="124"/>
-      <c r="C26" s="124"/>
-      <c r="D26" s="125"/>
-      <c r="E26" s="125"/>
-      <c r="F26" s="125"/>
+      <c r="A26" s="142"/>
+      <c r="B26" s="143"/>
+      <c r="C26" s="143"/>
+      <c r="D26" s="144"/>
+      <c r="E26" s="144"/>
+      <c r="F26" s="144"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="123"/>
-      <c r="B27" s="124"/>
-      <c r="C27" s="124"/>
-      <c r="D27" s="125"/>
-      <c r="E27" s="125"/>
-      <c r="F27" s="125"/>
+      <c r="A27" s="142"/>
+      <c r="B27" s="143"/>
+      <c r="C27" s="143"/>
+      <c r="D27" s="144"/>
+      <c r="E27" s="144"/>
+      <c r="F27" s="144"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="123"/>
-      <c r="B28" s="124"/>
-      <c r="C28" s="124"/>
-      <c r="D28" s="125"/>
-      <c r="E28" s="125"/>
-      <c r="F28" s="125"/>
+      <c r="A28" s="142"/>
+      <c r="B28" s="143"/>
+      <c r="C28" s="143"/>
+      <c r="D28" s="144"/>
+      <c r="E28" s="144"/>
+      <c r="F28" s="144"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="123"/>
-      <c r="B29" s="124"/>
-      <c r="C29" s="124"/>
-      <c r="D29" s="125"/>
-      <c r="E29" s="125"/>
-      <c r="F29" s="125"/>
+      <c r="A29" s="142"/>
+      <c r="B29" s="143"/>
+      <c r="C29" s="143"/>
+      <c r="D29" s="144"/>
+      <c r="E29" s="144"/>
+      <c r="F29" s="144"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="123"/>
-      <c r="B30" s="124"/>
-      <c r="C30" s="124"/>
-      <c r="D30" s="125"/>
-      <c r="E30" s="125"/>
-      <c r="F30" s="125"/>
+      <c r="A30" s="142"/>
+      <c r="B30" s="143"/>
+      <c r="C30" s="143"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="144"/>
+      <c r="F30" s="144"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="123"/>
-      <c r="B31" s="124"/>
-      <c r="C31" s="124"/>
-      <c r="D31" s="125"/>
-      <c r="E31" s="125"/>
-      <c r="F31" s="125"/>
+      <c r="A31" s="142"/>
+      <c r="B31" s="143"/>
+      <c r="C31" s="143"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="144"/>
+      <c r="F31" s="144"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="123"/>
-      <c r="B32" s="124"/>
-      <c r="C32" s="124"/>
-      <c r="D32" s="125"/>
-      <c r="E32" s="125"/>
-      <c r="F32" s="125"/>
+      <c r="A32" s="142"/>
+      <c r="B32" s="143"/>
+      <c r="C32" s="143"/>
+      <c r="D32" s="144"/>
+      <c r="E32" s="144"/>
+      <c r="F32" s="144"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="123"/>
-      <c r="B33" s="124"/>
-      <c r="C33" s="124"/>
-      <c r="D33" s="125"/>
-      <c r="E33" s="125"/>
-      <c r="F33" s="125"/>
+      <c r="A33" s="142"/>
+      <c r="B33" s="143"/>
+      <c r="C33" s="143"/>
+      <c r="D33" s="144"/>
+      <c r="E33" s="144"/>
+      <c r="F33" s="144"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="123"/>
-      <c r="B34" s="124"/>
-      <c r="C34" s="124"/>
-      <c r="D34" s="125"/>
-      <c r="E34" s="125"/>
-      <c r="F34" s="125"/>
+      <c r="A34" s="142"/>
+      <c r="B34" s="143"/>
+      <c r="C34" s="143"/>
+      <c r="D34" s="144"/>
+      <c r="E34" s="144"/>
+      <c r="F34" s="144"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A2:F20"/>
   <mergeCells count="48">
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A17:F17"/>
     <mergeCell ref="AZ1:BB1"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A10:F10"/>
@@ -4269,28 +4281,16 @@
     <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="AH1:AK1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.74803149606299002" bottom="0.74803149606299002" header="0.31496062992126" footer="0.31496062992126"/>
@@ -4335,29 +4335,29 @@
   <sheetData>
     <row r="1" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="165" t="s">
+      <c r="B1" s="147" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="166"/>
-      <c r="H1" s="166"/>
-      <c r="I1" s="166"/>
-      <c r="J1" s="166"/>
-      <c r="K1" s="166"/>
-      <c r="L1" s="166"/>
-      <c r="M1" s="166"/>
-      <c r="N1" s="166"/>
-      <c r="O1" s="166"/>
-      <c r="P1" s="166"/>
-      <c r="Q1" s="166"/>
-      <c r="R1" s="167" t="s">
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="148"/>
+      <c r="O1" s="148"/>
+      <c r="P1" s="148"/>
+      <c r="Q1" s="148"/>
+      <c r="R1" s="149" t="s">
         <v>49</v>
       </c>
-      <c r="S1" s="168"/>
-      <c r="T1" s="168"/>
+      <c r="S1" s="150"/>
+      <c r="T1" s="150"/>
       <c r="U1" s="3"/>
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
@@ -4368,25 +4368,25 @@
     </row>
     <row r="2" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="166"/>
-      <c r="I2" s="166"/>
-      <c r="J2" s="166"/>
-      <c r="K2" s="166"/>
-      <c r="L2" s="166"/>
-      <c r="M2" s="166"/>
-      <c r="N2" s="166"/>
-      <c r="O2" s="166"/>
-      <c r="P2" s="166"/>
-      <c r="Q2" s="166"/>
-      <c r="R2" s="168"/>
-      <c r="S2" s="168"/>
-      <c r="T2" s="168"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="148"/>
+      <c r="O2" s="148"/>
+      <c r="P2" s="148"/>
+      <c r="Q2" s="148"/>
+      <c r="R2" s="150"/>
+      <c r="S2" s="150"/>
+      <c r="T2" s="150"/>
       <c r="U2" s="3"/>
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
@@ -4397,25 +4397,25 @@
     </row>
     <row r="3" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="166"/>
-      <c r="I3" s="166"/>
-      <c r="J3" s="166"/>
-      <c r="K3" s="166"/>
-      <c r="L3" s="166"/>
-      <c r="M3" s="166"/>
-      <c r="N3" s="166"/>
-      <c r="O3" s="166"/>
-      <c r="P3" s="166"/>
-      <c r="Q3" s="166"/>
-      <c r="R3" s="168"/>
-      <c r="S3" s="168"/>
-      <c r="T3" s="168"/>
+      <c r="B3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="148"/>
+      <c r="O3" s="148"/>
+      <c r="P3" s="148"/>
+      <c r="Q3" s="148"/>
+      <c r="R3" s="150"/>
+      <c r="S3" s="150"/>
+      <c r="T3" s="150"/>
       <c r="U3" s="6"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
@@ -4426,25 +4426,25 @@
     </row>
     <row r="4" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="166"/>
-      <c r="C4" s="166"/>
-      <c r="D4" s="166"/>
-      <c r="E4" s="166"/>
-      <c r="F4" s="166"/>
-      <c r="G4" s="166"/>
-      <c r="H4" s="166"/>
-      <c r="I4" s="166"/>
-      <c r="J4" s="166"/>
-      <c r="K4" s="166"/>
-      <c r="L4" s="166"/>
-      <c r="M4" s="166"/>
-      <c r="N4" s="166"/>
-      <c r="O4" s="166"/>
-      <c r="P4" s="166"/>
-      <c r="Q4" s="166"/>
-      <c r="R4" s="168"/>
-      <c r="S4" s="168"/>
-      <c r="T4" s="168"/>
+      <c r="B4" s="148"/>
+      <c r="C4" s="148"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="148"/>
+      <c r="J4" s="148"/>
+      <c r="K4" s="148"/>
+      <c r="L4" s="148"/>
+      <c r="M4" s="148"/>
+      <c r="N4" s="148"/>
+      <c r="O4" s="148"/>
+      <c r="P4" s="148"/>
+      <c r="Q4" s="148"/>
+      <c r="R4" s="150"/>
+      <c r="S4" s="150"/>
+      <c r="T4" s="150"/>
       <c r="U4" s="6"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
@@ -4471,9 +4471,9 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-      <c r="R5" s="168"/>
-      <c r="S5" s="168"/>
-      <c r="T5" s="168"/>
+      <c r="R5" s="150"/>
+      <c r="S5" s="150"/>
+      <c r="T5" s="150"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
@@ -4484,7 +4484,7 @@
     </row>
     <row r="6" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="147" t="s">
+      <c r="B6" s="145" t="s">
         <v>50</v>
       </c>
       <c r="C6" s="146"/>
@@ -4515,7 +4515,7 @@
     </row>
     <row r="7" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="169" t="s">
+      <c r="B7" s="151" t="s">
         <v>51</v>
       </c>
       <c r="C7" s="146"/>
@@ -4546,7 +4546,7 @@
     </row>
     <row r="8" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="154" t="s">
+      <c r="B8" s="152" t="s">
         <v>52</v>
       </c>
       <c r="C8" s="146"/>
@@ -4577,7 +4577,7 @@
     </row>
     <row r="9" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="164" t="s">
+      <c r="B9" s="153" t="s">
         <v>53</v>
       </c>
       <c r="C9" s="146"/>
@@ -4608,7 +4608,7 @@
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="147" t="s">
+      <c r="B10" s="145" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="146"/>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="147" t="s">
+      <c r="B11" s="145" t="s">
         <v>55</v>
       </c>
       <c r="C11" s="146"/>
@@ -4894,7 +4894,7 @@
       <c r="C18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="152">
+      <c r="D18" s="154">
         <v>0</v>
       </c>
       <c r="E18" s="146"/>
@@ -4903,13 +4903,13 @@
       <c r="H18" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="I18" s="152" t="s">
+      <c r="I18" s="154" t="s">
         <v>71</v>
       </c>
       <c r="J18" s="146"/>
       <c r="K18" s="146"/>
       <c r="L18" s="146"/>
-      <c r="M18" s="152">
+      <c r="M18" s="154">
         <v>0</v>
       </c>
       <c r="N18" s="146"/>
@@ -4938,7 +4938,7 @@
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="161" t="s">
+      <c r="I19" s="155" t="s">
         <v>73</v>
       </c>
       <c r="J19" s="146"/>
@@ -5241,7 +5241,7 @@
       <c r="H28" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="I28" s="152" t="s">
+      <c r="I28" s="154" t="s">
         <v>71</v>
       </c>
       <c r="J28" s="146"/>
@@ -5274,7 +5274,7 @@
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
-      <c r="I29" s="161" t="s">
+      <c r="I29" s="155" t="s">
         <v>73</v>
       </c>
       <c r="J29" s="146"/>
@@ -5402,7 +5402,7 @@
     <row r="33" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="162" t="s">
+      <c r="C33" s="156" t="s">
         <v>92</v>
       </c>
       <c r="D33" s="146"/>
@@ -5411,7 +5411,7 @@
       <c r="G33" s="16"/>
       <c r="H33" s="16"/>
       <c r="I33" s="16"/>
-      <c r="J33" s="163" t="s">
+      <c r="J33" s="157" t="s">
         <v>93</v>
       </c>
       <c r="K33" s="146"/>
@@ -5469,21 +5469,21 @@
       <c r="C35" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="D35" s="149"/>
-      <c r="E35" s="149"/>
-      <c r="F35" s="149"/>
-      <c r="G35" s="149"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="149"/>
-      <c r="J35" s="149"/>
-      <c r="K35" s="149"/>
-      <c r="L35" s="149"/>
-      <c r="M35" s="149"/>
-      <c r="N35" s="149"/>
-      <c r="O35" s="149"/>
-      <c r="P35" s="149"/>
-      <c r="Q35" s="149"/>
-      <c r="R35" s="149"/>
+      <c r="D35" s="159"/>
+      <c r="E35" s="159"/>
+      <c r="F35" s="159"/>
+      <c r="G35" s="159"/>
+      <c r="H35" s="159"/>
+      <c r="I35" s="159"/>
+      <c r="J35" s="159"/>
+      <c r="K35" s="159"/>
+      <c r="L35" s="159"/>
+      <c r="M35" s="159"/>
+      <c r="N35" s="159"/>
+      <c r="O35" s="159"/>
+      <c r="P35" s="159"/>
+      <c r="Q35" s="159"/>
+      <c r="R35" s="159"/>
       <c r="S35" s="22" t="s">
         <v>96</v>
       </c>
@@ -5500,26 +5500,26 @@
     </row>
     <row r="36" spans="1:27" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="159">
+      <c r="B36" s="160">
         <v>1</v>
       </c>
-      <c r="C36" s="148" t="s">
+      <c r="C36" s="162" t="s">
         <v>98</v>
       </c>
-      <c r="D36" s="149"/>
-      <c r="E36" s="149"/>
-      <c r="F36" s="149"/>
-      <c r="G36" s="149"/>
-      <c r="H36" s="149"/>
-      <c r="I36" s="149"/>
-      <c r="J36" s="149"/>
-      <c r="K36" s="149"/>
-      <c r="L36" s="149"/>
-      <c r="M36" s="149"/>
-      <c r="N36" s="149"/>
-      <c r="O36" s="149"/>
-      <c r="P36" s="149"/>
-      <c r="Q36" s="150"/>
+      <c r="D36" s="159"/>
+      <c r="E36" s="159"/>
+      <c r="F36" s="159"/>
+      <c r="G36" s="159"/>
+      <c r="H36" s="159"/>
+      <c r="I36" s="159"/>
+      <c r="J36" s="159"/>
+      <c r="K36" s="159"/>
+      <c r="L36" s="159"/>
+      <c r="M36" s="159"/>
+      <c r="N36" s="159"/>
+      <c r="O36" s="159"/>
+      <c r="P36" s="159"/>
+      <c r="Q36" s="163"/>
       <c r="R36" s="24" t="s">
         <v>99</v>
       </c>
@@ -5540,24 +5540,24 @@
     </row>
     <row r="37" spans="1:27" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="160"/>
-      <c r="C37" s="151" t="s">
+      <c r="B37" s="161"/>
+      <c r="C37" s="164" t="s">
         <v>101</v>
       </c>
-      <c r="D37" s="149"/>
-      <c r="E37" s="149"/>
-      <c r="F37" s="149"/>
-      <c r="G37" s="149"/>
-      <c r="H37" s="149"/>
-      <c r="I37" s="149"/>
-      <c r="J37" s="149"/>
-      <c r="K37" s="149"/>
-      <c r="L37" s="149"/>
-      <c r="M37" s="149"/>
-      <c r="N37" s="149"/>
-      <c r="O37" s="149"/>
-      <c r="P37" s="149"/>
-      <c r="Q37" s="150"/>
+      <c r="D37" s="159"/>
+      <c r="E37" s="159"/>
+      <c r="F37" s="159"/>
+      <c r="G37" s="159"/>
+      <c r="H37" s="159"/>
+      <c r="I37" s="159"/>
+      <c r="J37" s="159"/>
+      <c r="K37" s="159"/>
+      <c r="L37" s="159"/>
+      <c r="M37" s="159"/>
+      <c r="N37" s="159"/>
+      <c r="O37" s="159"/>
+      <c r="P37" s="159"/>
+      <c r="Q37" s="163"/>
       <c r="R37" s="24" t="s">
         <v>102</v>
       </c>
@@ -5581,23 +5581,23 @@
       <c r="B38" s="29">
         <v>2</v>
       </c>
-      <c r="C38" s="148" t="s">
+      <c r="C38" s="162" t="s">
         <v>103</v>
       </c>
-      <c r="D38" s="149"/>
-      <c r="E38" s="149"/>
-      <c r="F38" s="149"/>
-      <c r="G38" s="149"/>
-      <c r="H38" s="149"/>
-      <c r="I38" s="149"/>
-      <c r="J38" s="149"/>
-      <c r="K38" s="149"/>
-      <c r="L38" s="149"/>
-      <c r="M38" s="149"/>
-      <c r="N38" s="149"/>
-      <c r="O38" s="149"/>
-      <c r="P38" s="149"/>
-      <c r="Q38" s="150"/>
+      <c r="D38" s="159"/>
+      <c r="E38" s="159"/>
+      <c r="F38" s="159"/>
+      <c r="G38" s="159"/>
+      <c r="H38" s="159"/>
+      <c r="I38" s="159"/>
+      <c r="J38" s="159"/>
+      <c r="K38" s="159"/>
+      <c r="L38" s="159"/>
+      <c r="M38" s="159"/>
+      <c r="N38" s="159"/>
+      <c r="O38" s="159"/>
+      <c r="P38" s="159"/>
+      <c r="Q38" s="163"/>
       <c r="R38" s="24" t="s">
         <v>104</v>
       </c>
@@ -5621,23 +5621,23 @@
       <c r="B39" s="25">
         <v>2.1</v>
       </c>
-      <c r="C39" s="151" t="s">
+      <c r="C39" s="164" t="s">
         <v>105</v>
       </c>
-      <c r="D39" s="149"/>
-      <c r="E39" s="149"/>
-      <c r="F39" s="149"/>
-      <c r="G39" s="149"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="149"/>
-      <c r="J39" s="149"/>
-      <c r="K39" s="149"/>
-      <c r="L39" s="149"/>
-      <c r="M39" s="149"/>
-      <c r="N39" s="149"/>
-      <c r="O39" s="149"/>
-      <c r="P39" s="149"/>
-      <c r="Q39" s="150"/>
+      <c r="D39" s="159"/>
+      <c r="E39" s="159"/>
+      <c r="F39" s="159"/>
+      <c r="G39" s="159"/>
+      <c r="H39" s="159"/>
+      <c r="I39" s="159"/>
+      <c r="J39" s="159"/>
+      <c r="K39" s="159"/>
+      <c r="L39" s="159"/>
+      <c r="M39" s="159"/>
+      <c r="N39" s="159"/>
+      <c r="O39" s="159"/>
+      <c r="P39" s="159"/>
+      <c r="Q39" s="163"/>
       <c r="R39" s="24" t="s">
         <v>106</v>
       </c>
@@ -5661,23 +5661,23 @@
       <c r="B40" s="25">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C40" s="151" t="s">
+      <c r="C40" s="164" t="s">
         <v>107</v>
       </c>
-      <c r="D40" s="149"/>
-      <c r="E40" s="149"/>
-      <c r="F40" s="149"/>
-      <c r="G40" s="149"/>
-      <c r="H40" s="149"/>
-      <c r="I40" s="149"/>
-      <c r="J40" s="149"/>
-      <c r="K40" s="149"/>
-      <c r="L40" s="149"/>
-      <c r="M40" s="149"/>
-      <c r="N40" s="149"/>
-      <c r="O40" s="149"/>
-      <c r="P40" s="149"/>
-      <c r="Q40" s="150"/>
+      <c r="D40" s="159"/>
+      <c r="E40" s="159"/>
+      <c r="F40" s="159"/>
+      <c r="G40" s="159"/>
+      <c r="H40" s="159"/>
+      <c r="I40" s="159"/>
+      <c r="J40" s="159"/>
+      <c r="K40" s="159"/>
+      <c r="L40" s="159"/>
+      <c r="M40" s="159"/>
+      <c r="N40" s="159"/>
+      <c r="O40" s="159"/>
+      <c r="P40" s="159"/>
+      <c r="Q40" s="163"/>
       <c r="R40" s="24" t="s">
         <v>108</v>
       </c>
@@ -5701,23 +5701,23 @@
       <c r="B41" s="29">
         <v>3</v>
       </c>
-      <c r="C41" s="148" t="s">
+      <c r="C41" s="162" t="s">
         <v>109</v>
       </c>
-      <c r="D41" s="149"/>
-      <c r="E41" s="149"/>
-      <c r="F41" s="149"/>
-      <c r="G41" s="149"/>
-      <c r="H41" s="149"/>
-      <c r="I41" s="149"/>
-      <c r="J41" s="149"/>
-      <c r="K41" s="149"/>
-      <c r="L41" s="149"/>
-      <c r="M41" s="149"/>
-      <c r="N41" s="149"/>
-      <c r="O41" s="149"/>
-      <c r="P41" s="149"/>
-      <c r="Q41" s="150"/>
+      <c r="D41" s="159"/>
+      <c r="E41" s="159"/>
+      <c r="F41" s="159"/>
+      <c r="G41" s="159"/>
+      <c r="H41" s="159"/>
+      <c r="I41" s="159"/>
+      <c r="J41" s="159"/>
+      <c r="K41" s="159"/>
+      <c r="L41" s="159"/>
+      <c r="M41" s="159"/>
+      <c r="N41" s="159"/>
+      <c r="O41" s="159"/>
+      <c r="P41" s="159"/>
+      <c r="Q41" s="163"/>
       <c r="R41" s="24" t="s">
         <v>110</v>
       </c>
@@ -5741,23 +5741,23 @@
       <c r="B42" s="32">
         <v>3.1</v>
       </c>
-      <c r="C42" s="151" t="s">
+      <c r="C42" s="164" t="s">
         <v>112</v>
       </c>
-      <c r="D42" s="149"/>
-      <c r="E42" s="149"/>
-      <c r="F42" s="149"/>
-      <c r="G42" s="149"/>
-      <c r="H42" s="149"/>
-      <c r="I42" s="149"/>
-      <c r="J42" s="149"/>
-      <c r="K42" s="149"/>
-      <c r="L42" s="149"/>
-      <c r="M42" s="149"/>
-      <c r="N42" s="149"/>
-      <c r="O42" s="149"/>
-      <c r="P42" s="149"/>
-      <c r="Q42" s="150"/>
+      <c r="D42" s="159"/>
+      <c r="E42" s="159"/>
+      <c r="F42" s="159"/>
+      <c r="G42" s="159"/>
+      <c r="H42" s="159"/>
+      <c r="I42" s="159"/>
+      <c r="J42" s="159"/>
+      <c r="K42" s="159"/>
+      <c r="L42" s="159"/>
+      <c r="M42" s="159"/>
+      <c r="N42" s="159"/>
+      <c r="O42" s="159"/>
+      <c r="P42" s="159"/>
+      <c r="Q42" s="163"/>
       <c r="R42" s="24" t="s">
         <v>113</v>
       </c>
@@ -5781,23 +5781,23 @@
       <c r="B43" s="32">
         <v>3.2</v>
       </c>
-      <c r="C43" s="151" t="s">
+      <c r="C43" s="164" t="s">
         <v>107</v>
       </c>
-      <c r="D43" s="149"/>
-      <c r="E43" s="149"/>
-      <c r="F43" s="149"/>
-      <c r="G43" s="149"/>
-      <c r="H43" s="149"/>
-      <c r="I43" s="149"/>
-      <c r="J43" s="149"/>
-      <c r="K43" s="149"/>
-      <c r="L43" s="149"/>
-      <c r="M43" s="149"/>
-      <c r="N43" s="149"/>
-      <c r="O43" s="149"/>
-      <c r="P43" s="149"/>
-      <c r="Q43" s="150"/>
+      <c r="D43" s="159"/>
+      <c r="E43" s="159"/>
+      <c r="F43" s="159"/>
+      <c r="G43" s="159"/>
+      <c r="H43" s="159"/>
+      <c r="I43" s="159"/>
+      <c r="J43" s="159"/>
+      <c r="K43" s="159"/>
+      <c r="L43" s="159"/>
+      <c r="M43" s="159"/>
+      <c r="N43" s="159"/>
+      <c r="O43" s="159"/>
+      <c r="P43" s="159"/>
+      <c r="Q43" s="163"/>
       <c r="R43" s="24" t="s">
         <v>114</v>
       </c>
@@ -5821,23 +5821,23 @@
       <c r="B44" s="24">
         <v>4</v>
       </c>
-      <c r="C44" s="148" t="s">
+      <c r="C44" s="162" t="s">
         <v>115</v>
       </c>
-      <c r="D44" s="149"/>
-      <c r="E44" s="149"/>
-      <c r="F44" s="149"/>
-      <c r="G44" s="149"/>
-      <c r="H44" s="149"/>
-      <c r="I44" s="149"/>
-      <c r="J44" s="149"/>
-      <c r="K44" s="149"/>
-      <c r="L44" s="149"/>
-      <c r="M44" s="149"/>
-      <c r="N44" s="149"/>
-      <c r="O44" s="149"/>
-      <c r="P44" s="149"/>
-      <c r="Q44" s="150"/>
+      <c r="D44" s="159"/>
+      <c r="E44" s="159"/>
+      <c r="F44" s="159"/>
+      <c r="G44" s="159"/>
+      <c r="H44" s="159"/>
+      <c r="I44" s="159"/>
+      <c r="J44" s="159"/>
+      <c r="K44" s="159"/>
+      <c r="L44" s="159"/>
+      <c r="M44" s="159"/>
+      <c r="N44" s="159"/>
+      <c r="O44" s="159"/>
+      <c r="P44" s="159"/>
+      <c r="Q44" s="163"/>
       <c r="R44" s="24" t="s">
         <v>116</v>
       </c>
@@ -5861,23 +5861,23 @@
       <c r="B45" s="32">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C45" s="151" t="s">
+      <c r="C45" s="164" t="s">
         <v>112</v>
       </c>
-      <c r="D45" s="149"/>
-      <c r="E45" s="149"/>
-      <c r="F45" s="149"/>
-      <c r="G45" s="149"/>
-      <c r="H45" s="149"/>
-      <c r="I45" s="149"/>
-      <c r="J45" s="149"/>
-      <c r="K45" s="149"/>
-      <c r="L45" s="149"/>
-      <c r="M45" s="149"/>
-      <c r="N45" s="149"/>
-      <c r="O45" s="149"/>
-      <c r="P45" s="149"/>
-      <c r="Q45" s="150"/>
+      <c r="D45" s="159"/>
+      <c r="E45" s="159"/>
+      <c r="F45" s="159"/>
+      <c r="G45" s="159"/>
+      <c r="H45" s="159"/>
+      <c r="I45" s="159"/>
+      <c r="J45" s="159"/>
+      <c r="K45" s="159"/>
+      <c r="L45" s="159"/>
+      <c r="M45" s="159"/>
+      <c r="N45" s="159"/>
+      <c r="O45" s="159"/>
+      <c r="P45" s="159"/>
+      <c r="Q45" s="163"/>
       <c r="R45" s="24" t="s">
         <v>117</v>
       </c>
@@ -5901,23 +5901,23 @@
       <c r="B46" s="32">
         <v>4.2</v>
       </c>
-      <c r="C46" s="151" t="s">
+      <c r="C46" s="164" t="s">
         <v>107</v>
       </c>
-      <c r="D46" s="149"/>
-      <c r="E46" s="149"/>
-      <c r="F46" s="149"/>
-      <c r="G46" s="149"/>
-      <c r="H46" s="149"/>
-      <c r="I46" s="149"/>
-      <c r="J46" s="149"/>
-      <c r="K46" s="149"/>
-      <c r="L46" s="149"/>
-      <c r="M46" s="149"/>
-      <c r="N46" s="149"/>
-      <c r="O46" s="149"/>
-      <c r="P46" s="149"/>
-      <c r="Q46" s="150"/>
+      <c r="D46" s="159"/>
+      <c r="E46" s="159"/>
+      <c r="F46" s="159"/>
+      <c r="G46" s="159"/>
+      <c r="H46" s="159"/>
+      <c r="I46" s="159"/>
+      <c r="J46" s="159"/>
+      <c r="K46" s="159"/>
+      <c r="L46" s="159"/>
+      <c r="M46" s="159"/>
+      <c r="N46" s="159"/>
+      <c r="O46" s="159"/>
+      <c r="P46" s="159"/>
+      <c r="Q46" s="163"/>
       <c r="R46" s="24" t="s">
         <v>118</v>
       </c>
@@ -5941,23 +5941,23 @@
       <c r="B47" s="24">
         <v>5</v>
       </c>
-      <c r="C47" s="148" t="s">
+      <c r="C47" s="162" t="s">
         <v>119</v>
       </c>
-      <c r="D47" s="149"/>
-      <c r="E47" s="149"/>
-      <c r="F47" s="149"/>
-      <c r="G47" s="149"/>
-      <c r="H47" s="149"/>
-      <c r="I47" s="149"/>
-      <c r="J47" s="149"/>
-      <c r="K47" s="149"/>
-      <c r="L47" s="149"/>
-      <c r="M47" s="149"/>
-      <c r="N47" s="149"/>
-      <c r="O47" s="149"/>
-      <c r="P47" s="149"/>
-      <c r="Q47" s="150"/>
+      <c r="D47" s="159"/>
+      <c r="E47" s="159"/>
+      <c r="F47" s="159"/>
+      <c r="G47" s="159"/>
+      <c r="H47" s="159"/>
+      <c r="I47" s="159"/>
+      <c r="J47" s="159"/>
+      <c r="K47" s="159"/>
+      <c r="L47" s="159"/>
+      <c r="M47" s="159"/>
+      <c r="N47" s="159"/>
+      <c r="O47" s="159"/>
+      <c r="P47" s="159"/>
+      <c r="Q47" s="163"/>
       <c r="R47" s="24" t="s">
         <v>120</v>
       </c>
@@ -5981,23 +5981,23 @@
       <c r="B48" s="32">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C48" s="151" t="s">
+      <c r="C48" s="164" t="s">
         <v>121</v>
       </c>
-      <c r="D48" s="149"/>
-      <c r="E48" s="149"/>
-      <c r="F48" s="149"/>
-      <c r="G48" s="149"/>
-      <c r="H48" s="149"/>
-      <c r="I48" s="149"/>
-      <c r="J48" s="149"/>
-      <c r="K48" s="149"/>
-      <c r="L48" s="149"/>
-      <c r="M48" s="149"/>
-      <c r="N48" s="149"/>
-      <c r="O48" s="149"/>
-      <c r="P48" s="149"/>
-      <c r="Q48" s="150"/>
+      <c r="D48" s="159"/>
+      <c r="E48" s="159"/>
+      <c r="F48" s="159"/>
+      <c r="G48" s="159"/>
+      <c r="H48" s="159"/>
+      <c r="I48" s="159"/>
+      <c r="J48" s="159"/>
+      <c r="K48" s="159"/>
+      <c r="L48" s="159"/>
+      <c r="M48" s="159"/>
+      <c r="N48" s="159"/>
+      <c r="O48" s="159"/>
+      <c r="P48" s="159"/>
+      <c r="Q48" s="163"/>
       <c r="R48" s="24" t="s">
         <v>122</v>
       </c>
@@ -6021,23 +6021,23 @@
       <c r="B49" s="32">
         <v>5.2</v>
       </c>
-      <c r="C49" s="151" t="s">
+      <c r="C49" s="164" t="s">
         <v>107</v>
       </c>
-      <c r="D49" s="149"/>
-      <c r="E49" s="149"/>
-      <c r="F49" s="149"/>
-      <c r="G49" s="149"/>
-      <c r="H49" s="149"/>
-      <c r="I49" s="149"/>
-      <c r="J49" s="149"/>
-      <c r="K49" s="149"/>
-      <c r="L49" s="149"/>
-      <c r="M49" s="149"/>
-      <c r="N49" s="149"/>
-      <c r="O49" s="149"/>
-      <c r="P49" s="149"/>
-      <c r="Q49" s="150"/>
+      <c r="D49" s="159"/>
+      <c r="E49" s="159"/>
+      <c r="F49" s="159"/>
+      <c r="G49" s="159"/>
+      <c r="H49" s="159"/>
+      <c r="I49" s="159"/>
+      <c r="J49" s="159"/>
+      <c r="K49" s="159"/>
+      <c r="L49" s="159"/>
+      <c r="M49" s="159"/>
+      <c r="N49" s="159"/>
+      <c r="O49" s="159"/>
+      <c r="P49" s="159"/>
+      <c r="Q49" s="163"/>
       <c r="R49" s="24" t="s">
         <v>123</v>
       </c>
@@ -6087,7 +6087,7 @@
     </row>
     <row r="51" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="152" t="s">
+      <c r="B51" s="154" t="s">
         <v>124</v>
       </c>
       <c r="C51" s="146"/>
@@ -6118,7 +6118,7 @@
     </row>
     <row r="52" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="153" t="s">
+      <c r="B52" s="166" t="s">
         <v>125</v>
       </c>
       <c r="C52" s="146"/>
@@ -6188,7 +6188,7 @@
       <c r="I54" s="16"/>
       <c r="J54" s="16"/>
       <c r="K54" s="16"/>
-      <c r="L54" s="154" t="s">
+      <c r="L54" s="152" t="s">
         <v>126</v>
       </c>
       <c r="M54" s="146"/>
@@ -6210,7 +6210,7 @@
     <row r="55" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="36"/>
-      <c r="C55" s="155" t="s">
+      <c r="C55" s="167" t="s">
         <v>127</v>
       </c>
       <c r="D55" s="146"/>
@@ -6222,7 +6222,7 @@
       <c r="J55" s="10"/>
       <c r="K55" s="16"/>
       <c r="L55" s="16"/>
-      <c r="M55" s="155" t="s">
+      <c r="M55" s="167" t="s">
         <v>128</v>
       </c>
       <c r="N55" s="146"/>
@@ -6243,7 +6243,7 @@
     <row r="56" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="36"/>
-      <c r="C56" s="156" t="s">
+      <c r="C56" s="168" t="s">
         <v>129</v>
       </c>
       <c r="D56" s="146"/>
@@ -6284,7 +6284,7 @@
       <c r="J57" s="38"/>
       <c r="K57" s="12"/>
       <c r="L57" s="12"/>
-      <c r="M57" s="157" t="s">
+      <c r="M57" s="169" t="s">
         <v>130</v>
       </c>
       <c r="N57" s="146"/>
@@ -6318,7 +6318,7 @@
       <c r="M58" s="12"/>
       <c r="N58" s="12"/>
       <c r="O58" s="12"/>
-      <c r="P58" s="145"/>
+      <c r="P58" s="165"/>
       <c r="Q58" s="146"/>
       <c r="R58" s="146"/>
       <c r="S58" s="146"/>
@@ -6403,7 +6403,7 @@
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
-      <c r="N61" s="147"/>
+      <c r="N61" s="145"/>
       <c r="O61" s="146"/>
       <c r="P61" s="146"/>
       <c r="Q61" s="146"/>
@@ -33652,32 +33652,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="41">
-    <mergeCell ref="B6:T6"/>
-    <mergeCell ref="B1:Q4"/>
-    <mergeCell ref="R1:T5"/>
-    <mergeCell ref="B7:T7"/>
-    <mergeCell ref="B8:T8"/>
-    <mergeCell ref="B9:T9"/>
-    <mergeCell ref="B10:T10"/>
-    <mergeCell ref="B11:T11"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="C35:R35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:Q36"/>
-    <mergeCell ref="C37:Q37"/>
-    <mergeCell ref="C38:Q38"/>
-    <mergeCell ref="C39:Q39"/>
-    <mergeCell ref="C40:Q40"/>
-    <mergeCell ref="C41:Q41"/>
-    <mergeCell ref="C42:Q42"/>
-    <mergeCell ref="C43:Q43"/>
     <mergeCell ref="P58:T58"/>
     <mergeCell ref="N61:T61"/>
     <mergeCell ref="C44:Q44"/>
@@ -33693,6 +33667,32 @@
     <mergeCell ref="M55:T56"/>
     <mergeCell ref="C56:I57"/>
     <mergeCell ref="M57:T57"/>
+    <mergeCell ref="C39:Q39"/>
+    <mergeCell ref="C40:Q40"/>
+    <mergeCell ref="C41:Q41"/>
+    <mergeCell ref="C42:Q42"/>
+    <mergeCell ref="C43:Q43"/>
+    <mergeCell ref="C35:R35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:Q36"/>
+    <mergeCell ref="C37:Q37"/>
+    <mergeCell ref="C38:Q38"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="B9:T9"/>
+    <mergeCell ref="B10:T10"/>
+    <mergeCell ref="B11:T11"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="B6:T6"/>
+    <mergeCell ref="B1:Q4"/>
+    <mergeCell ref="R1:T5"/>
+    <mergeCell ref="B7:T7"/>
+    <mergeCell ref="B8:T8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -34553,12 +34553,12 @@
       <c r="A5" s="80"/>
       <c r="B5" s="80"/>
       <c r="C5" s="80"/>
-      <c r="D5" s="175" t="s">
+      <c r="D5" s="190" t="s">
         <v>140</v>
       </c>
-      <c r="E5" s="175"/>
-      <c r="F5" s="175"/>
-      <c r="G5" s="175"/>
+      <c r="E5" s="190"/>
+      <c r="F5" s="190"/>
+      <c r="G5" s="190"/>
       <c r="H5" s="99" t="s">
         <v>141</v>
       </c>
@@ -34608,18 +34608,18 @@
       <c r="J8" s="44"/>
     </row>
     <row r="9" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="170" t="s">
+      <c r="A9" s="179" t="s">
         <v>144</v>
       </c>
-      <c r="B9" s="170"/>
-      <c r="C9" s="170"/>
-      <c r="D9" s="170"/>
-      <c r="E9" s="170"/>
-      <c r="F9" s="170"/>
-      <c r="G9" s="170"/>
-      <c r="H9" s="170"/>
-      <c r="I9" s="170"/>
-      <c r="J9" s="170"/>
+      <c r="B9" s="179"/>
+      <c r="C9" s="179"/>
+      <c r="D9" s="179"/>
+      <c r="E9" s="179"/>
+      <c r="F9" s="179"/>
+      <c r="G9" s="179"/>
+      <c r="H9" s="179"/>
+      <c r="I9" s="179"/>
+      <c r="J9" s="179"/>
     </row>
     <row r="10" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="44" t="s">
@@ -34632,10 +34632,10 @@
       <c r="F10" s="74"/>
       <c r="G10" s="77"/>
       <c r="H10" s="74"/>
-      <c r="I10" s="176" t="s">
+      <c r="I10" s="191" t="s">
         <v>146</v>
       </c>
-      <c r="J10" s="176"/>
+      <c r="J10" s="191"/>
     </row>
     <row r="11" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="44" t="s">
@@ -34678,10 +34678,10 @@
       </c>
       <c r="G13" s="77"/>
       <c r="H13" s="47"/>
-      <c r="I13" s="177" t="s">
+      <c r="I13" s="192" t="s">
         <v>150</v>
       </c>
-      <c r="J13" s="176"/>
+      <c r="J13" s="191"/>
     </row>
     <row r="14" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="44" t="s">
@@ -34726,12 +34726,12 @@
       <c r="J16" s="47"/>
     </row>
     <row r="17" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="170" t="s">
+      <c r="A17" s="179" t="s">
         <v>154</v>
       </c>
-      <c r="B17" s="170"/>
-      <c r="C17" s="170"/>
-      <c r="D17" s="170"/>
+      <c r="B17" s="179"/>
+      <c r="C17" s="179"/>
+      <c r="D17" s="179"/>
       <c r="E17" s="73" t="s">
         <v>155</v>
       </c>
@@ -34752,12 +34752,12 @@
       <c r="D18" s="44"/>
       <c r="E18" s="44"/>
       <c r="F18" s="74"/>
-      <c r="G18" s="170" t="s">
+      <c r="G18" s="179" t="s">
         <v>158</v>
       </c>
-      <c r="H18" s="170"/>
-      <c r="I18" s="170"/>
-      <c r="J18" s="170"/>
+      <c r="H18" s="179"/>
+      <c r="I18" s="179"/>
+      <c r="J18" s="179"/>
     </row>
     <row r="19" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="44" t="s">
@@ -34848,20 +34848,20 @@
       <c r="J24" s="44"/>
     </row>
     <row r="25" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="171" t="s">
+      <c r="A25" s="193" t="s">
         <v>167</v>
       </c>
-      <c r="B25" s="171"/>
-      <c r="C25" s="171"/>
-      <c r="D25" s="171"/>
-      <c r="E25" s="171"/>
-      <c r="F25" s="171"/>
-      <c r="G25" s="171"/>
-      <c r="H25" s="172" t="s">
+      <c r="B25" s="193"/>
+      <c r="C25" s="193"/>
+      <c r="D25" s="193"/>
+      <c r="E25" s="193"/>
+      <c r="F25" s="193"/>
+      <c r="G25" s="193"/>
+      <c r="H25" s="194" t="s">
         <v>168</v>
       </c>
-      <c r="I25" s="172"/>
-      <c r="J25" s="172"/>
+      <c r="I25" s="194"/>
+      <c r="J25" s="194"/>
     </row>
     <row r="26" spans="1:26" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="72" t="s">
@@ -34879,14 +34879,14 @@
       <c r="E26" s="71" t="s">
         <v>173</v>
       </c>
-      <c r="F26" s="173" t="s">
+      <c r="F26" s="195" t="s">
         <v>174</v>
       </c>
-      <c r="G26" s="174"/>
-      <c r="H26" s="173" t="s">
+      <c r="G26" s="196"/>
+      <c r="H26" s="195" t="s">
         <v>175</v>
       </c>
-      <c r="I26" s="174"/>
+      <c r="I26" s="196"/>
       <c r="J26" s="71" t="s">
         <v>176</v>
       </c>
@@ -34907,12 +34907,12 @@
         <v>178</v>
       </c>
       <c r="E27" s="66"/>
-      <c r="F27" s="178"/>
-      <c r="G27" s="179"/>
-      <c r="H27" s="180">
+      <c r="F27" s="181"/>
+      <c r="G27" s="182"/>
+      <c r="H27" s="183">
         <v>557</v>
       </c>
-      <c r="I27" s="181"/>
+      <c r="I27" s="184"/>
       <c r="J27" s="65" t="s">
         <v>179</v>
       </c>
@@ -34923,19 +34923,19 @@
     </row>
     <row r="28" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="64"/>
-      <c r="B28" s="182" t="s">
+      <c r="B28" s="185" t="s">
         <v>180</v>
       </c>
-      <c r="C28" s="183"/>
-      <c r="D28" s="184"/>
+      <c r="C28" s="186"/>
+      <c r="D28" s="187"/>
       <c r="E28" s="63"/>
-      <c r="F28" s="185">
+      <c r="F28" s="188">
         <f>F27</f>
         <v>0</v>
       </c>
-      <c r="G28" s="186"/>
-      <c r="H28" s="182"/>
-      <c r="I28" s="184"/>
+      <c r="G28" s="189"/>
+      <c r="H28" s="185"/>
+      <c r="I28" s="187"/>
       <c r="J28" s="63"/>
     </row>
     <row r="29" spans="1:26" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -34951,21 +34951,21 @@
       <c r="J29" s="58"/>
     </row>
     <row r="30" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="188" t="s">
+      <c r="A30" s="171" t="s">
         <v>181</v>
       </c>
-      <c r="B30" s="188"/>
-      <c r="C30" s="189" t="e">
+      <c r="B30" s="171"/>
+      <c r="C30" s="172" t="e">
         <f ca="1">UPPER(LEFT(SpellVNDEN(F28),1))&amp;RIGHT(SpellVNDEN(F28),LEN(SpellVNDEN(F28))-1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D30" s="189"/>
-      <c r="E30" s="189"/>
-      <c r="F30" s="189"/>
-      <c r="G30" s="189"/>
-      <c r="H30" s="189"/>
-      <c r="I30" s="189"/>
-      <c r="J30" s="189"/>
+      <c r="D30" s="172"/>
+      <c r="E30" s="172"/>
+      <c r="F30" s="172"/>
+      <c r="G30" s="172"/>
+      <c r="H30" s="172"/>
+      <c r="I30" s="172"/>
+      <c r="J30" s="172"/>
     </row>
     <row r="31" spans="1:26" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="57"/>
@@ -34989,9 +34989,9 @@
       <c r="E32" s="54"/>
       <c r="F32" s="54"/>
       <c r="G32" s="54"/>
-      <c r="H32" s="190"/>
-      <c r="I32" s="190"/>
-      <c r="J32" s="191"/>
+      <c r="H32" s="173"/>
+      <c r="I32" s="173"/>
+      <c r="J32" s="174"/>
     </row>
     <row r="33" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="52"/>
@@ -35037,9 +35037,9 @@
       <c r="E35" s="48"/>
       <c r="F35" s="48"/>
       <c r="G35" s="48"/>
-      <c r="H35" s="192"/>
-      <c r="I35" s="192"/>
-      <c r="J35" s="193"/>
+      <c r="H35" s="175"/>
+      <c r="I35" s="175"/>
+      <c r="J35" s="176"/>
       <c r="K35" s="42"/>
       <c r="L35" s="42"/>
     </row>
@@ -35056,30 +35056,30 @@
       <c r="J36" s="44"/>
     </row>
     <row r="37" spans="1:14" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="194" t="s">
+      <c r="A37" s="177" t="s">
         <v>187</v>
       </c>
-      <c r="B37" s="194"/>
-      <c r="C37" s="194"/>
-      <c r="D37" s="194"/>
-      <c r="E37" s="194"/>
-      <c r="F37" s="194"/>
-      <c r="G37" s="194" t="s">
+      <c r="B37" s="177"/>
+      <c r="C37" s="177"/>
+      <c r="D37" s="177"/>
+      <c r="E37" s="177"/>
+      <c r="F37" s="177"/>
+      <c r="G37" s="177" t="s">
         <v>188</v>
       </c>
-      <c r="H37" s="194"/>
-      <c r="I37" s="194"/>
-      <c r="J37" s="194"/>
+      <c r="H37" s="177"/>
+      <c r="I37" s="177"/>
+      <c r="J37" s="177"/>
     </row>
     <row r="38" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="195" t="s">
+      <c r="A38" s="178" t="s">
         <v>189</v>
       </c>
-      <c r="B38" s="195"/>
-      <c r="C38" s="195"/>
-      <c r="D38" s="195"/>
-      <c r="E38" s="195"/>
-      <c r="F38" s="195"/>
+      <c r="B38" s="178"/>
+      <c r="C38" s="178"/>
+      <c r="D38" s="178"/>
+      <c r="E38" s="178"/>
+      <c r="F38" s="178"/>
       <c r="G38" s="47" t="s">
         <v>190</v>
       </c>
@@ -35098,12 +35098,12 @@
         <v>192</v>
       </c>
       <c r="F39" s="44"/>
-      <c r="G39" s="170" t="s">
+      <c r="G39" s="179" t="s">
         <v>193</v>
       </c>
-      <c r="H39" s="170"/>
-      <c r="I39" s="170"/>
-      <c r="J39" s="170"/>
+      <c r="H39" s="179"/>
+      <c r="I39" s="179"/>
+      <c r="J39" s="179"/>
     </row>
     <row r="40" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="44"/>
@@ -35115,7 +35115,7 @@
       <c r="G40" s="44"/>
       <c r="H40" s="44"/>
       <c r="I40" s="44"/>
-      <c r="J40" s="196"/>
+      <c r="J40" s="180"/>
       <c r="N40" s="41" t="s">
         <v>194</v>
       </c>
@@ -35130,7 +35130,7 @@
       <c r="G41" s="44"/>
       <c r="H41" s="44"/>
       <c r="I41" s="44"/>
-      <c r="J41" s="196"/>
+      <c r="J41" s="180"/>
     </row>
     <row r="42" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="44"/>
@@ -35172,15 +35172,15 @@
       <c r="A45" s="44"/>
       <c r="B45" s="44"/>
       <c r="C45" s="44"/>
-      <c r="D45" s="194"/>
-      <c r="E45" s="194"/>
+      <c r="D45" s="177"/>
+      <c r="E45" s="177"/>
       <c r="F45" s="45"/>
       <c r="G45" s="44"/>
       <c r="H45" s="44"/>
       <c r="I45" s="44"/>
       <c r="J45" s="44"/>
-      <c r="L45" s="187"/>
-      <c r="M45" s="187"/>
+      <c r="L45" s="170"/>
+      <c r="M45" s="170"/>
     </row>
     <row r="46" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="44"/>
@@ -35193,8 +35193,8 @@
       <c r="H46" s="44"/>
       <c r="I46" s="44"/>
       <c r="J46" s="44"/>
-      <c r="L46" s="187"/>
-      <c r="M46" s="187"/>
+      <c r="L46" s="170"/>
+      <c r="M46" s="170"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="42"/>
@@ -35211,6 +35211,21 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="27">
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="C30:J30"/>
@@ -35223,21 +35238,6 @@
     <mergeCell ref="J40:J41"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="L45:M45"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="51" orientation="portrait" r:id="rId1"/>
@@ -36094,10 +36094,10 @@
       <c r="A5" s="80"/>
       <c r="B5" s="80"/>
       <c r="C5" s="80"/>
-      <c r="D5" s="175"/>
-      <c r="E5" s="175"/>
-      <c r="F5" s="175"/>
-      <c r="G5" s="175"/>
+      <c r="D5" s="190"/>
+      <c r="E5" s="190"/>
+      <c r="F5" s="190"/>
+      <c r="G5" s="190"/>
       <c r="H5" s="98" t="s">
         <v>204</v>
       </c>
@@ -36151,18 +36151,18 @@
       <c r="J8" s="44"/>
     </row>
     <row r="9" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="170" t="s">
+      <c r="A9" s="179" t="s">
         <v>208</v>
       </c>
-      <c r="B9" s="170"/>
-      <c r="C9" s="170"/>
-      <c r="D9" s="170"/>
-      <c r="E9" s="170"/>
-      <c r="F9" s="170"/>
-      <c r="G9" s="170"/>
-      <c r="H9" s="170"/>
-      <c r="I9" s="170"/>
-      <c r="J9" s="170"/>
+      <c r="B9" s="179"/>
+      <c r="C9" s="179"/>
+      <c r="D9" s="179"/>
+      <c r="E9" s="179"/>
+      <c r="F9" s="179"/>
+      <c r="G9" s="179"/>
+      <c r="H9" s="179"/>
+      <c r="I9" s="179"/>
+      <c r="J9" s="179"/>
     </row>
     <row r="10" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="44" t="s">
@@ -36175,10 +36175,10 @@
       <c r="F10" s="74"/>
       <c r="G10" s="77"/>
       <c r="H10" s="74"/>
-      <c r="I10" s="176" t="s">
+      <c r="I10" s="191" t="s">
         <v>209</v>
       </c>
-      <c r="J10" s="176"/>
+      <c r="J10" s="191"/>
       <c r="L10" s="41" t="s">
         <v>209</v>
       </c>
@@ -36224,10 +36224,10 @@
         <v>149</v>
       </c>
       <c r="H13" s="47"/>
-      <c r="I13" s="177" t="s">
+      <c r="I13" s="192" t="s">
         <v>212</v>
       </c>
-      <c r="J13" s="176"/>
+      <c r="J13" s="191"/>
     </row>
     <row r="14" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="44" t="s">
@@ -36272,12 +36272,12 @@
       <c r="J16" s="47"/>
     </row>
     <row r="17" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="170" t="s">
+      <c r="A17" s="179" t="s">
         <v>216</v>
       </c>
-      <c r="B17" s="170"/>
-      <c r="C17" s="170"/>
-      <c r="D17" s="170"/>
+      <c r="B17" s="179"/>
+      <c r="C17" s="179"/>
+      <c r="D17" s="179"/>
       <c r="E17" s="73"/>
       <c r="F17" s="44" t="s">
         <v>217</v>
@@ -36298,12 +36298,12 @@
       <c r="F18" s="74" t="s">
         <v>219</v>
       </c>
-      <c r="G18" s="170" t="s">
+      <c r="G18" s="179" t="s">
         <v>220</v>
       </c>
-      <c r="H18" s="170"/>
-      <c r="I18" s="170"/>
-      <c r="J18" s="170"/>
+      <c r="H18" s="179"/>
+      <c r="I18" s="179"/>
+      <c r="J18" s="179"/>
     </row>
     <row r="19" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="44" t="s">
@@ -36394,20 +36394,20 @@
       <c r="J24" s="44"/>
     </row>
     <row r="25" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="171" t="s">
+      <c r="A25" s="193" t="s">
         <v>229</v>
       </c>
-      <c r="B25" s="171"/>
-      <c r="C25" s="171"/>
-      <c r="D25" s="171"/>
-      <c r="E25" s="171"/>
-      <c r="F25" s="171"/>
-      <c r="G25" s="171"/>
-      <c r="H25" s="172" t="s">
+      <c r="B25" s="193"/>
+      <c r="C25" s="193"/>
+      <c r="D25" s="193"/>
+      <c r="E25" s="193"/>
+      <c r="F25" s="193"/>
+      <c r="G25" s="193"/>
+      <c r="H25" s="194" t="s">
         <v>230</v>
       </c>
-      <c r="I25" s="172"/>
-      <c r="J25" s="172"/>
+      <c r="I25" s="194"/>
+      <c r="J25" s="194"/>
     </row>
     <row r="26" spans="1:10" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="72" t="s">
@@ -36425,14 +36425,14 @@
       <c r="E26" s="71" t="s">
         <v>234</v>
       </c>
-      <c r="F26" s="173" t="s">
+      <c r="F26" s="195" t="s">
         <v>235</v>
       </c>
-      <c r="G26" s="174"/>
-      <c r="H26" s="173" t="s">
+      <c r="G26" s="196"/>
+      <c r="H26" s="195" t="s">
         <v>236</v>
       </c>
-      <c r="I26" s="174"/>
+      <c r="I26" s="196"/>
       <c r="J26" s="71" t="s">
         <v>237</v>
       </c>
@@ -36449,31 +36449,31 @@
         <v>239</v>
       </c>
       <c r="E27" s="66"/>
-      <c r="F27" s="178"/>
-      <c r="G27" s="179"/>
-      <c r="H27" s="180">
+      <c r="F27" s="181"/>
+      <c r="G27" s="182"/>
+      <c r="H27" s="183">
         <v>557</v>
       </c>
-      <c r="I27" s="181"/>
+      <c r="I27" s="184"/>
       <c r="J27" s="65" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="64"/>
-      <c r="B28" s="182" t="s">
+      <c r="B28" s="185" t="s">
         <v>240</v>
       </c>
-      <c r="C28" s="183"/>
-      <c r="D28" s="184"/>
+      <c r="C28" s="186"/>
+      <c r="D28" s="187"/>
       <c r="E28" s="63"/>
-      <c r="F28" s="185">
+      <c r="F28" s="188">
         <f>F27</f>
         <v>0</v>
       </c>
-      <c r="G28" s="186"/>
-      <c r="H28" s="182"/>
-      <c r="I28" s="184"/>
+      <c r="G28" s="189"/>
+      <c r="H28" s="185"/>
+      <c r="I28" s="187"/>
       <c r="J28" s="63"/>
     </row>
     <row r="29" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -36489,18 +36489,18 @@
       <c r="J29" s="58"/>
     </row>
     <row r="30" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="188" t="s">
+      <c r="A30" s="171" t="s">
         <v>241</v>
       </c>
-      <c r="B30" s="188"/>
-      <c r="C30" s="189"/>
-      <c r="D30" s="189"/>
-      <c r="E30" s="189"/>
-      <c r="F30" s="189"/>
-      <c r="G30" s="189"/>
-      <c r="H30" s="189"/>
-      <c r="I30" s="189"/>
-      <c r="J30" s="189"/>
+      <c r="B30" s="171"/>
+      <c r="C30" s="172"/>
+      <c r="D30" s="172"/>
+      <c r="E30" s="172"/>
+      <c r="F30" s="172"/>
+      <c r="G30" s="172"/>
+      <c r="H30" s="172"/>
+      <c r="I30" s="172"/>
+      <c r="J30" s="172"/>
     </row>
     <row r="31" spans="1:10" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="57"/>
@@ -36524,9 +36524,9 @@
       <c r="E32" s="54"/>
       <c r="F32" s="54"/>
       <c r="G32" s="54"/>
-      <c r="H32" s="190"/>
-      <c r="I32" s="190"/>
-      <c r="J32" s="191"/>
+      <c r="H32" s="173"/>
+      <c r="I32" s="173"/>
+      <c r="J32" s="174"/>
     </row>
     <row r="33" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="52"/>
@@ -36572,9 +36572,9 @@
       <c r="E35" s="48"/>
       <c r="F35" s="48"/>
       <c r="G35" s="48"/>
-      <c r="H35" s="192"/>
-      <c r="I35" s="192"/>
-      <c r="J35" s="193"/>
+      <c r="H35" s="175"/>
+      <c r="I35" s="175"/>
+      <c r="J35" s="176"/>
       <c r="K35" s="42"/>
       <c r="L35" s="42"/>
     </row>
@@ -36591,30 +36591,30 @@
       <c r="J36" s="44"/>
     </row>
     <row r="37" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="194" t="s">
+      <c r="A37" s="177" t="s">
         <v>247</v>
       </c>
-      <c r="B37" s="194"/>
-      <c r="C37" s="194"/>
-      <c r="D37" s="194"/>
-      <c r="E37" s="194"/>
-      <c r="F37" s="194"/>
-      <c r="G37" s="194" t="s">
+      <c r="B37" s="177"/>
+      <c r="C37" s="177"/>
+      <c r="D37" s="177"/>
+      <c r="E37" s="177"/>
+      <c r="F37" s="177"/>
+      <c r="G37" s="177" t="s">
         <v>248</v>
       </c>
-      <c r="H37" s="194"/>
-      <c r="I37" s="194"/>
-      <c r="J37" s="194"/>
+      <c r="H37" s="177"/>
+      <c r="I37" s="177"/>
+      <c r="J37" s="177"/>
     </row>
     <row r="38" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="195" t="s">
+      <c r="A38" s="178" t="s">
         <v>249</v>
       </c>
-      <c r="B38" s="195"/>
-      <c r="C38" s="195"/>
-      <c r="D38" s="195"/>
-      <c r="E38" s="195"/>
-      <c r="F38" s="195"/>
+      <c r="B38" s="178"/>
+      <c r="C38" s="178"/>
+      <c r="D38" s="178"/>
+      <c r="E38" s="178"/>
+      <c r="F38" s="178"/>
       <c r="G38" s="47" t="s">
         <v>250</v>
       </c>
@@ -36631,12 +36631,12 @@
       <c r="D39" s="44"/>
       <c r="E39" s="44"/>
       <c r="F39" s="44"/>
-      <c r="G39" s="170" t="s">
+      <c r="G39" s="179" t="s">
         <v>252</v>
       </c>
-      <c r="H39" s="170"/>
-      <c r="I39" s="170"/>
-      <c r="J39" s="170"/>
+      <c r="H39" s="179"/>
+      <c r="I39" s="179"/>
+      <c r="J39" s="179"/>
     </row>
     <row r="40" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="44"/>
@@ -36648,7 +36648,7 @@
       <c r="G40" s="44"/>
       <c r="H40" s="44"/>
       <c r="I40" s="44"/>
-      <c r="J40" s="196"/>
+      <c r="J40" s="180"/>
     </row>
     <row r="41" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="44"/>
@@ -36660,7 +36660,7 @@
       <c r="G41" s="44"/>
       <c r="H41" s="44"/>
       <c r="I41" s="44"/>
-      <c r="J41" s="196"/>
+      <c r="J41" s="180"/>
     </row>
     <row r="42" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="44"/>
@@ -36702,15 +36702,15 @@
       <c r="A45" s="44"/>
       <c r="B45" s="44"/>
       <c r="C45" s="44"/>
-      <c r="D45" s="194"/>
-      <c r="E45" s="194"/>
+      <c r="D45" s="177"/>
+      <c r="E45" s="177"/>
       <c r="F45" s="45"/>
       <c r="G45" s="44"/>
       <c r="H45" s="44"/>
       <c r="I45" s="44"/>
       <c r="J45" s="44"/>
-      <c r="L45" s="187"/>
-      <c r="M45" s="187"/>
+      <c r="L45" s="170"/>
+      <c r="M45" s="170"/>
     </row>
     <row r="46" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="44"/>
@@ -36723,8 +36723,8 @@
       <c r="H46" s="44"/>
       <c r="I46" s="44"/>
       <c r="J46" s="44"/>
-      <c r="L46" s="187"/>
-      <c r="M46" s="187"/>
+      <c r="L46" s="170"/>
+      <c r="M46" s="170"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="42"/>
@@ -36741,6 +36741,17 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="27">
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
     <mergeCell ref="G39:J39"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="L45:M45"/>
@@ -36757,17 +36768,6 @@
     <mergeCell ref="A37:F37"/>
     <mergeCell ref="G37:J37"/>
     <mergeCell ref="A38:F38"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="49" orientation="portrait" r:id="rId1"/>
